--- a/case_study1/threshold_0.75/exchanges_only_in_our_analysis.xlsx
+++ b/case_study1/threshold_0.75/exchanges_only_in_our_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NTU_PhD\Projects\W2RKG_application\case_study1\threshold_0.75\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\W2RKG_application\case_study1\threshold_0.75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBADBAB-785A-4A30-BBC8-D48E806C7986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E41A7-D4F9-4A85-9E00-730B8A14BB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30816" yWindow="-2688" windowWidth="15552" windowHeight="16656" xr2:uid="{195C3BB2-A8D5-4B50-AA79-F184EDF43FA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{195C3BB2-A8D5-4B50-AA79-F184EDF43FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="exchanges_only_in_our - 副本" sheetId="1" r:id="rId1"/>
@@ -205,11 +205,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -217,7 +217,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,7 +225,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -234,7 +234,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,7 +243,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -252,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -260,7 +260,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,7 +268,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -276,7 +276,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +284,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,7 +293,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -302,7 +302,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -310,7 +310,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,7 +319,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,7 +327,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -336,7 +336,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -345,7 +345,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -353,14 +353,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -861,48 +861,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,11 +1236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6539B45-C24F-432F-AAB0-C39151F8F8A9}">
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201:D201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.21875" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" style="4" customWidth="1"/>
@@ -1248,7 +1248,7 @@
     <col min="4" max="4" width="49.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="43.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1480,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>29</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>27</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>29</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>28</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>33</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>33</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>33</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>33</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>33</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>33</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>33</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>33</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>33</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>33</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>33</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>33</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>33</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>33</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>33</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>33</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>33</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>33</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>24</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>36</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>36</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>36</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>37</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>37</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>37</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>37</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>37</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>37</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>37</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>37</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>37</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>37</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>37</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>37</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>37</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>39</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>39</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>39</v>
       </c>
